--- a/va_facility_data_2025-02-20/Effingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Effingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Effingham VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Effingham%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Reb270b9526d647a397fcea2dd77e2e6b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbd25398b86a64e5784a91820f5861b9e"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re9de01813d0447a9bf301988bca32d29"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Ra8f7a617da0f4f35a4652d259e3a1628"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbbe1157162a1438c9c509e441a970f42"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R617db590b63e42ff84fc1ed9626a77d2"/>
   </x:sheets>
 </x:workbook>
 </file>
